--- a/public/client-files/amc.xlsx
+++ b/public/client-files/amc.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\boston\public\client-files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4FEC4E-911D-4C96-8373-F18886BA8AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AMC Name" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="AMC Name" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,801 +25,801 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="505">
-  <si>
-    <t xml:space="preserve">AMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee Can Sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee Can Inspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details on Trainee Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Instruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deducts technology fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1004UAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1004D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Dimensions Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="506">
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>Trainee Can Sign</t>
+  </si>
+  <si>
+    <t>Trainee Can Inspect</t>
+  </si>
+  <si>
+    <t>Details on Trainee Inspection</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Client Instruction</t>
+  </si>
+  <si>
+    <t>deducts technology fee</t>
+  </si>
+  <si>
+    <t>1004UAD</t>
+  </si>
+  <si>
+    <t>1004D</t>
+  </si>
+  <si>
+    <t>Financial Dimensions Inc</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
 Trainee can't inspect the property.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan.</t>
   </si>
   <si>
-    <t xml:space="preserve">Countryside Appraisal Management Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't inspect the property. Trainee can't sign the report. Please use trainee contributory addendum in the report.
+    <t>Countryside Appraisal Management Corporation</t>
+  </si>
+  <si>
+    <t>Trainee can't inspect the property. Trainee can't sign the report. Please use trainee contributory addendum in the report.
 Trainees are not allowed for FHA loans. Please don't use trainee and trainee contributory addendum in FHA reports.</t>
   </si>
   <si>
-    <t xml:space="preserve">orders@countrysideam.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate Rabbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA AMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valued Veterans, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peoples United Bank, N.A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Nation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can inspect the property. Trainee can sign the report. Please use trainee contributory addendum in the report.
+    <t>orders@countrysideam.com</t>
+  </si>
+  <si>
+    <t>Rate Rabbit</t>
+  </si>
+  <si>
+    <t>AAA AMC</t>
+  </si>
+  <si>
+    <t>Valued Veterans, LLC</t>
+  </si>
+  <si>
+    <t>Peoples United Bank, N.A</t>
+  </si>
+  <si>
+    <t>Appraisal Nation</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Trainee can inspect the property. Trainee can sign the report. Please use trainee contributory addendum in the report.
 Trainees are not allowed for FHA loans. Please don't use trainee and trainee contributory addendum in FHA reports.</t>
   </si>
   <si>
-    <t xml:space="preserve">order@appraisalnation.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In "As is" and "As repaired" from Appraisal Nation, trainee is allowed to do everything.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Appraisal Hub, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Springhouse LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge Trust Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amanda.Ippolito@cambridgetrust.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tri Union Appraisal Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSA Mortgage, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Mortgage Solutions, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lee Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential Equity Funding Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eStreet Appraisal Management, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newrez@myworkday.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can sign only if the value is under  1 m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prime Lending Appraisal Desk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois National Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes/Most Likely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>order@appraisalnation.com</t>
+  </si>
+  <si>
+    <t>In "As is" and "As repaired" from Appraisal Nation, trainee is allowed to do everything.</t>
+  </si>
+  <si>
+    <t>The Appraisal Hub, LLC</t>
+  </si>
+  <si>
+    <t>Springhouse LLC</t>
+  </si>
+  <si>
+    <t>Cambridge Trust Company</t>
+  </si>
+  <si>
+    <t>Amanda.Ippolito@cambridgetrust.com</t>
+  </si>
+  <si>
+    <t>Tri Union Appraisal Services</t>
+  </si>
+  <si>
+    <t>MSA Mortgage, LLC</t>
+  </si>
+  <si>
+    <t>Bank Mortgage Solutions, LLC</t>
+  </si>
+  <si>
+    <t>Lee Bank</t>
+  </si>
+  <si>
+    <t>Residential Equity Funding Corporation</t>
+  </si>
+  <si>
+    <t>eStreet Appraisal Management, LLC</t>
+  </si>
+  <si>
+    <t>newrez@myworkday.com</t>
+  </si>
+  <si>
+    <t>Trainee can sign only if the value is under  1 m.</t>
+  </si>
+  <si>
+    <t>Prime Lending Appraisal Desk</t>
+  </si>
+  <si>
+    <t>Valocity</t>
+  </si>
+  <si>
+    <t>Illinois National Bank</t>
+  </si>
+  <si>
+    <t>Yes/Most Likely</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
 Trainee can't inspect the property.
 Loan type is 1004 UAD Single Family (FHA).
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan.</t>
   </si>
   <si>
-    <t xml:space="preserve">Norfolk Capital Funding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suntender Valuations, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embrace Homeloans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bluestone Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csteffen@bluestone.bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurora Financial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webster Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can sign the report.
+    <t>Norfolk Capital Funding</t>
+  </si>
+  <si>
+    <t>Suntender Valuations, Inc</t>
+  </si>
+  <si>
+    <t>Embrace Homeloans</t>
+  </si>
+  <si>
+    <t>Bluestone Bank</t>
+  </si>
+  <si>
+    <t>csteffen@bluestone.bank</t>
+  </si>
+  <si>
+    <t>Aurora Financial</t>
+  </si>
+  <si>
+    <t>Webster Bank</t>
+  </si>
+  <si>
+    <t>Trainee can sign the report.
 Trainee can inspect the property.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan.</t>
   </si>
   <si>
-    <t xml:space="preserve">EVALUEXPRESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First American Mortgage Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infinity Capital Finance Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can sign the report.
+    <t>EVALUEXPRESS</t>
+  </si>
+  <si>
+    <t>First American Mortgage Solutions</t>
+  </si>
+  <si>
+    <t>Infinity Capital Finance Corporation</t>
+  </si>
+  <si>
+    <t>Trainee can sign the report.
 Trainee can inspect the property.
 Loan type is All.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan.</t>
   </si>
   <si>
-    <t xml:space="preserve">National Asset Management Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voxtur valuation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EquiFirst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority Appraisal USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home State Mortgage, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Home Loans And Finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LendingOne, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order Pro USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GuardHill Financial Corp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPRAISALS@GUARDHILL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guaranteed Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisalpayment@rate.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guaranteed Rate Affinity, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppraisalPayment@grarate.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATI Valuations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goodman Dean, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market Valuation Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solidifi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equity Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karis Management Group- K2 Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noreply@karismgmt.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Real Estate Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radian/ValuAmerica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sher Financial Group, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenpark Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirchmeyer &amp; Associate, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iSgn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My AMC.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQUITY SOLUTIONS USA, INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eppraisal Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>National Asset Management Group</t>
+  </si>
+  <si>
+    <t>Voxtur valuation</t>
+  </si>
+  <si>
+    <t>EquiFirst</t>
+  </si>
+  <si>
+    <t>Priority Appraisal USA</t>
+  </si>
+  <si>
+    <t>Home State Mortgage, Inc</t>
+  </si>
+  <si>
+    <t>Global Home Loans And Finance</t>
+  </si>
+  <si>
+    <t>LendingOne, LLC</t>
+  </si>
+  <si>
+    <t>Order Pro USA</t>
+  </si>
+  <si>
+    <t>GuardHill Financial Corp.</t>
+  </si>
+  <si>
+    <t>APPRAISALS@GUARDHILL.COM</t>
+  </si>
+  <si>
+    <t>Guaranteed Rate</t>
+  </si>
+  <si>
+    <t>Appraisalpayment@rate.com</t>
+  </si>
+  <si>
+    <t>Guaranteed Rate Affinity, LLC</t>
+  </si>
+  <si>
+    <t>AppraisalPayment@grarate.com</t>
+  </si>
+  <si>
+    <t>ATI Valuations</t>
+  </si>
+  <si>
+    <t>Goodman Dean, Inc</t>
+  </si>
+  <si>
+    <t>Market Valuation Services</t>
+  </si>
+  <si>
+    <t>Solidifi</t>
+  </si>
+  <si>
+    <t>Equity Bank</t>
+  </si>
+  <si>
+    <t>Karis Management Group- K2 Branch</t>
+  </si>
+  <si>
+    <t>noreply@karismgmt.com</t>
+  </si>
+  <si>
+    <t>US Real Estate Services</t>
+  </si>
+  <si>
+    <t>Radian/ValuAmerica</t>
+  </si>
+  <si>
+    <t>Sher Financial Group, Inc</t>
+  </si>
+  <si>
+    <t>Greenpark Mortgage</t>
+  </si>
+  <si>
+    <t>Kirchmeyer &amp; Associate, Inc.</t>
+  </si>
+  <si>
+    <t>iSgn</t>
+  </si>
+  <si>
+    <t>My AMC.com</t>
+  </si>
+  <si>
+    <t>EQUITY SOLUTIONS USA, INC.</t>
+  </si>
+  <si>
+    <t>Eppraisal Network</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
 Trainee can't inspect the property.
 Loan type is 1073 UAD Condo (FHA).
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan.</t>
   </si>
   <si>
-    <t xml:space="preserve">OLD Republic Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REO NATIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston Appraisal Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Management Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steve@appraisalmgtsolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIQ National</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRES Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envision Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdickenson@envisionbank.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District Appraisals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaza Home Mortgage, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apex Appraisal Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmeriMac Appraisal Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info@amerimacamc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMC Settlement Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cs@amcssc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ameripath Mortgage Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advantage Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankers Asset Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston Realty Funding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flagstar Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppraisalPanelDirect@flagstar.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston Mortgage Group INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axis-AMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radius Financial Group Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMH Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South West Financial Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwellworks, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun West Mortgage Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xome Valuation Services LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't inspect the property. Trainee can sign the report. Please use trainee contributory addendum in the report.
+    <t>OLD Republic Title</t>
+  </si>
+  <si>
+    <t>REO NATIONAL</t>
+  </si>
+  <si>
+    <t>Boston Appraisal Services</t>
+  </si>
+  <si>
+    <t>Appraisal Management Solutions</t>
+  </si>
+  <si>
+    <t>steve@appraisalmgtsolutions.com</t>
+  </si>
+  <si>
+    <t>LSI</t>
+  </si>
+  <si>
+    <t>PIQ National</t>
+  </si>
+  <si>
+    <t>LRES Corporation</t>
+  </si>
+  <si>
+    <t>Envision Bank</t>
+  </si>
+  <si>
+    <t>cdickenson@envisionbank.com</t>
+  </si>
+  <si>
+    <t>Evaluation Solutions</t>
+  </si>
+  <si>
+    <t>District Appraisals</t>
+  </si>
+  <si>
+    <t>Plaza Home Mortgage, Inc.</t>
+  </si>
+  <si>
+    <t>Apex Appraisal Service</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>AmeriMac Appraisal Management</t>
+  </si>
+  <si>
+    <t>info@amerimacamc.com</t>
+  </si>
+  <si>
+    <t>AMC Settlement Services</t>
+  </si>
+  <si>
+    <t>cs@amcssc.com</t>
+  </si>
+  <si>
+    <t>Ameripath Mortgage Corporation</t>
+  </si>
+  <si>
+    <t>Advantage Bank</t>
+  </si>
+  <si>
+    <t>Bankers Asset Management</t>
+  </si>
+  <si>
+    <t>Boston Realty Funding</t>
+  </si>
+  <si>
+    <t>Flagstar Bank</t>
+  </si>
+  <si>
+    <t>AppraisalPanelDirect@flagstar.com</t>
+  </si>
+  <si>
+    <t>Boston Mortgage Group INC</t>
+  </si>
+  <si>
+    <t>Axis-AMC</t>
+  </si>
+  <si>
+    <t>Radius Financial Group Inc</t>
+  </si>
+  <si>
+    <t>GMH Mortgage</t>
+  </si>
+  <si>
+    <t>South West Financial Services</t>
+  </si>
+  <si>
+    <t>Dwellworks, LLC</t>
+  </si>
+  <si>
+    <t>Sun West Mortgage Company</t>
+  </si>
+  <si>
+    <t>Xome Valuation Services LLC</t>
+  </si>
+  <si>
+    <t>Trainee can't inspect the property. Trainee can sign the report. Please use trainee contributory addendum in the report.
 Trainees are not allowed for FHA loans. Please don't use trainee and trainee contributory addendum in FHA reports.</t>
   </si>
   <si>
-    <t xml:space="preserve">xome@myworkday.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoke to Missy at vendor management.Trainee can assist on the report. Only Appraiser can inspect the property.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunflower Bank, N.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Eastern Evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st National Appraisal Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerLink Settlement Services, LP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTS GROUP, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harper Financial LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServiceLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewFed Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JVI Appraisal Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Financial Resources, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic 1 Appraisal Leadership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iMortgage Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1Closing Service LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equity One Customer Loan Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Financial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Lender Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayport Funding LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connor@bayportfunding.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arivs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Desk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardinal Financial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Appraisal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leader Bank, N.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nagrawal@leaderbank.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Valley Bank &amp; Trust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landmark Network, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valligent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computershare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAST WEST MORTGAGE COMPANY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shamrock Financial Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applied Valuation Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATAFACTS LENDING SOLUTIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can sign the report.
+    <t>xome@myworkday.com</t>
+  </si>
+  <si>
+    <t>Spoke to Missy at vendor management.Trainee can assist on the report. Only Appraiser can inspect the property.</t>
+  </si>
+  <si>
+    <t>Sunflower Bank, N.A.</t>
+  </si>
+  <si>
+    <t>South Eastern Evaluation</t>
+  </si>
+  <si>
+    <t>1st National Appraisal Source</t>
+  </si>
+  <si>
+    <t>PowerLink Settlement Services, LP</t>
+  </si>
+  <si>
+    <t>MTS GROUP, LLC</t>
+  </si>
+  <si>
+    <t>Harper Financial LLC</t>
+  </si>
+  <si>
+    <t>ServiceLink</t>
+  </si>
+  <si>
+    <t>NewFed Mortgage</t>
+  </si>
+  <si>
+    <t>JVI Appraisal Services</t>
+  </si>
+  <si>
+    <t>American Financial Resources, Inc</t>
+  </si>
+  <si>
+    <t>Atlantic 1 Appraisal Leadership</t>
+  </si>
+  <si>
+    <t>iMortgage Services</t>
+  </si>
+  <si>
+    <t>A1Closing Service LTD</t>
+  </si>
+  <si>
+    <t>Equity One Customer Loan Center</t>
+  </si>
+  <si>
+    <t>Eastern Financial</t>
+  </si>
+  <si>
+    <t>United Lender Services</t>
+  </si>
+  <si>
+    <t>Bayport Funding LLC</t>
+  </si>
+  <si>
+    <t>connor@bayportfunding.com</t>
+  </si>
+  <si>
+    <t>Arivs</t>
+  </si>
+  <si>
+    <t>Appraisal Desk</t>
+  </si>
+  <si>
+    <t>Cardinal Financial</t>
+  </si>
+  <si>
+    <t>Act Appraisal</t>
+  </si>
+  <si>
+    <t>Leader Bank, N.A.</t>
+  </si>
+  <si>
+    <t>nagrawal@leaderbank.com</t>
+  </si>
+  <si>
+    <t>New Valley Bank &amp; Trust</t>
+  </si>
+  <si>
+    <t>Landmark Network, Inc.</t>
+  </si>
+  <si>
+    <t>Valligent</t>
+  </si>
+  <si>
+    <t>Computershare</t>
+  </si>
+  <si>
+    <t>EAST WEST MORTGAGE COMPANY</t>
+  </si>
+  <si>
+    <t>Shamrock Financial Corporation</t>
+  </si>
+  <si>
+    <t>Applied Valuation Services</t>
+  </si>
+  <si>
+    <t>DATAFACTS LENDING SOLUTIONS</t>
+  </si>
+  <si>
+    <t>Trainee can sign the report.
  Trainee can inspect the property.
  Loan type is 1073 UAD Condo.
 Trainee are not allowed for FHA loan. 617-440-7700</t>
   </si>
   <si>
-    <t xml:space="preserve">617-440-7700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emery Federal Credit Union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birchtree Mortgage, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stripe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amerisave Mortgage Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Atlantic Appraisal Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can sign the report.
+    <t>617-440-7700</t>
+  </si>
+  <si>
+    <t>Emery Federal Credit Union</t>
+  </si>
+  <si>
+    <t>Birchtree Mortgage, Inc</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>Amerisave Mortgage Corporation</t>
+  </si>
+  <si>
+    <t>North Atlantic Appraisal Company</t>
+  </si>
+  <si>
+    <t>Trainee can sign the report.
 Trainee can't inspect the property.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan.
 North Atlantic - use of trainees vary client to client and if we are not sure about a clients policy regarding trainees on a particular order we can email them @ office@nacc.com and they will provide us with the info. Leader Bank their biggest client does not allow use of trainees</t>
   </si>
   <si>
-    <t xml:space="preserve">North Atlantic - use of trainees vary client to client and if we are not sure about a clients policy regarding trainees on a particular order we can email them @ office@nacc.com and they will provide us with the info. Leader Bank their biggest client does not allow use of trainees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Home Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Tek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">billing@appraisaltek.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro-Tech Services LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Sky Risk Services/US Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redskyeastern@usbank.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haus Lending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>North Atlantic - use of trainees vary client to client and if we are not sure about a clients policy regarding trainees on a particular order we can email them @ office@nacc.com and they will provide us with the info. Leader Bank their biggest client does not allow use of trainees</t>
+  </si>
+  <si>
+    <t>Union Home Mortgage</t>
+  </si>
+  <si>
+    <t>Appraisal Tek</t>
+  </si>
+  <si>
+    <t>billing@appraisaltek.com</t>
+  </si>
+  <si>
+    <t>Pro-Tech Services LTD</t>
+  </si>
+  <si>
+    <t>Red Sky Risk Services/US Bank</t>
+  </si>
+  <si>
+    <t>redskyeastern@usbank.com</t>
+  </si>
+  <si>
+    <t>Haus Lending</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
 Trainee can't inspect the property.
 Loan type is 1073 UAD Condo.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan.</t>
   </si>
   <si>
-    <t xml:space="preserve">Needham Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shitchings@needhambank.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryan Cave Leighton Paisner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HVCC Appraisal Ordering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Appraisers/ Equity Prime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarocity Valuation Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Wholesale Mortgage, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old National Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington Trust Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chase Commercial Banking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Shore Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolute Lending Logistics, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct Valuation Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CustomerService@directvaluationsolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Evaluation Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLB Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valuation Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisals2U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>Needham Bank</t>
+  </si>
+  <si>
+    <t>shitchings@needhambank.com</t>
+  </si>
+  <si>
+    <t>Bryan Cave Leighton Paisner</t>
+  </si>
+  <si>
+    <t>HVCC Appraisal Ordering</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>US Appraisers/ Equity Prime</t>
+  </si>
+  <si>
+    <t>Clarocity Valuation Services</t>
+  </si>
+  <si>
+    <t>United Wholesale Mortgage, LLC</t>
+  </si>
+  <si>
+    <t>Old National Bank</t>
+  </si>
+  <si>
+    <t>Washington Trust Mortgage</t>
+  </si>
+  <si>
+    <t>Chase Commercial Banking</t>
+  </si>
+  <si>
+    <t>South Shore Bank</t>
+  </si>
+  <si>
+    <t>Absolute Lending Logistics, LLC</t>
+  </si>
+  <si>
+    <t>Direct Valuation Solutions</t>
+  </si>
+  <si>
+    <t>CustomerService@directvaluationsolutions.com</t>
+  </si>
+  <si>
+    <t>Financial Freedom</t>
+  </si>
+  <si>
+    <t>Asset Evaluation Services</t>
+  </si>
+  <si>
+    <t>BLB Resources</t>
+  </si>
+  <si>
+    <t>Valuation Link</t>
+  </si>
+  <si>
+    <t>Appraisals2U</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
 Trainee can't inspect the property.
 Loan type is All.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan.</t>
   </si>
   <si>
-    <t xml:space="preserve">EValuation Zone Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadlan Valuation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info@nadlanvaluation.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check with client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synergy One Lending, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lendervend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core Valuation Mgt. Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoreLogic Valuation Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clprodmgr@corelogic.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aim Loan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genworth Financial Home Equity Access,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joeyb@triservllc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secured Lending Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brookline Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_AccountsPayable@brkl.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortgage Financial Services,Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocwen Financial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Point Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Collateral Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milend Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugene Poillucci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amrock/TSI Appraisal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Payments@rockcentraldetroit.com "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMA Mortgage Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wakefield Co-operative Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nemi Appraisal Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationwide Property &amp; Appraisal Services - Olde City Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMarketing Services/FastBreak Appraisal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class Valuation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conventional loans only.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraiser Vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Independent Financial Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InHouse Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanguard Appraisal Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pendo Management Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salem Five Mortgage Company, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraisals@salemfive.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Mortgage Corp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East2West Valuation Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SingleSource Property Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equity Resources, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirchmeyer &amp; Associates, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporate Settlement Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advisors Mortgage Group, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equifax Settlement Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lincoln Appraisal &amp; Settlement Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraisermgmt@lincolnappraisal.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UWM Appraisal Direct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraisaldirect@uwm.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">833-896-2300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celebrity Home Loans, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accusured Mgt LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landmark Appraisal Group, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settle Appraisal Services, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENG Lending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleven Mortgage (Ark-La-Tex Financial Services, LLC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit Bureau of Connecticut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can sign the report.
+    <t>EValuation Zone Inc</t>
+  </si>
+  <si>
+    <t>Nadlan Valuation</t>
+  </si>
+  <si>
+    <t>info@nadlanvaluation.com</t>
+  </si>
+  <si>
+    <t>Check with client</t>
+  </si>
+  <si>
+    <t>Synergy One Lending, Inc.</t>
+  </si>
+  <si>
+    <t>Lendervend</t>
+  </si>
+  <si>
+    <t>Core Valuation Mgt. Inc</t>
+  </si>
+  <si>
+    <t>CoreLogic Valuation Solutions</t>
+  </si>
+  <si>
+    <t>clprodmgr@corelogic.com</t>
+  </si>
+  <si>
+    <t>Aim Loan</t>
+  </si>
+  <si>
+    <t>Genworth Financial Home Equity Access,</t>
+  </si>
+  <si>
+    <t>Triserv</t>
+  </si>
+  <si>
+    <t>joeyb@triservllc.com</t>
+  </si>
+  <si>
+    <t>Secured Lending Services</t>
+  </si>
+  <si>
+    <t>Brookline Bank</t>
+  </si>
+  <si>
+    <t>_AccountsPayable@brkl.com</t>
+  </si>
+  <si>
+    <t>Mortgage Financial Services,Inc.</t>
+  </si>
+  <si>
+    <t>Ocwen Financial</t>
+  </si>
+  <si>
+    <t>North Point Bank</t>
+  </si>
+  <si>
+    <t>Advanced Collateral Solutions</t>
+  </si>
+  <si>
+    <t>Milend Inc</t>
+  </si>
+  <si>
+    <t>Eugene Poillucci</t>
+  </si>
+  <si>
+    <t>Amrock/TSI Appraisal</t>
+  </si>
+  <si>
+    <t>"Payments@rockcentraldetroit.com "</t>
+  </si>
+  <si>
+    <t>JMA Mortgage Corporation</t>
+  </si>
+  <si>
+    <t>Wakefield Co-operative Bank</t>
+  </si>
+  <si>
+    <t>Nemi Appraisal Services</t>
+  </si>
+  <si>
+    <t>Nationwide Property &amp; Appraisal Services - Olde City Division</t>
+  </si>
+  <si>
+    <t>OMarketing Services/FastBreak Appraisal</t>
+  </si>
+  <si>
+    <t>Class Valuation</t>
+  </si>
+  <si>
+    <t>Conventional loans only.</t>
+  </si>
+  <si>
+    <t>Appraiser Vendor</t>
+  </si>
+  <si>
+    <t>Independent Financial Mortgage</t>
+  </si>
+  <si>
+    <t>InHouse Solutions</t>
+  </si>
+  <si>
+    <t>Vanguard Appraisal Management</t>
+  </si>
+  <si>
+    <t>Pendo Management Group</t>
+  </si>
+  <si>
+    <t>Salem Five Mortgage Company, LLC</t>
+  </si>
+  <si>
+    <t>appraisals@salemfive.com</t>
+  </si>
+  <si>
+    <t>US Mortgage Corp</t>
+  </si>
+  <si>
+    <t>East2West Valuation Services</t>
+  </si>
+  <si>
+    <t>SingleSource Property Solutions</t>
+  </si>
+  <si>
+    <t>Equity Resources, Inc.</t>
+  </si>
+  <si>
+    <t>Kirchmeyer &amp; Associates, Inc</t>
+  </si>
+  <si>
+    <t>Corporate Settlement Solutions</t>
+  </si>
+  <si>
+    <t>Advisors Mortgage Group, LLC</t>
+  </si>
+  <si>
+    <t>Equifax Settlement Service</t>
+  </si>
+  <si>
+    <t>Lincoln Appraisal &amp; Settlement Services</t>
+  </si>
+  <si>
+    <t>appraisermgmt@lincolnappraisal.com</t>
+  </si>
+  <si>
+    <t>UWM Appraisal Direct</t>
+  </si>
+  <si>
+    <t>appraisaldirect@uwm.com</t>
+  </si>
+  <si>
+    <t>833-896-2300</t>
+  </si>
+  <si>
+    <t>Appraisal Pro</t>
+  </si>
+  <si>
+    <t>National Link</t>
+  </si>
+  <si>
+    <t>Celebrity Home Loans, LLC</t>
+  </si>
+  <si>
+    <t>Accusured Mgt LLC</t>
+  </si>
+  <si>
+    <t>Landmark Appraisal Group, LLC</t>
+  </si>
+  <si>
+    <t>Settle Appraisal Services, Inc.</t>
+  </si>
+  <si>
+    <t>AMSA</t>
+  </si>
+  <si>
+    <t>ENG Lending</t>
+  </si>
+  <si>
+    <t>Eleven Mortgage (Ark-La-Tex Financial Services, LLC)</t>
+  </si>
+  <si>
+    <t>Credit Bureau of Connecticut</t>
+  </si>
+  <si>
+    <t>Trainee can sign the report.
 Trainee can inspect the property.
 Loan type is All.
 Please Add trainee contributory addendum.
@@ -822,802 +827,804 @@
 As long as a supervisor signs off on the report then a trainee can complete it.</t>
   </si>
   <si>
-    <t xml:space="preserve">As long as a supervisor signs off on the report then a trainee can complete it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Title Source, Inc. Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salem Co-operative Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cabel@salemcoop.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granite State Appraisal Mgt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Octant Business Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msanfacon@octant.us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Jordan Real Estate Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro-Mac Appraisals, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service 1st Valuation&amp; Settlement Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WesBanco Bank, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>As long as a supervisor signs off on the report then a trainee can complete it.</t>
+  </si>
+  <si>
+    <t>A Title Source, Inc. Company</t>
+  </si>
+  <si>
+    <t>Salem Co-operative Bank</t>
+  </si>
+  <si>
+    <t>cabel@salemcoop.com</t>
+  </si>
+  <si>
+    <t>Granite State Appraisal Mgt</t>
+  </si>
+  <si>
+    <t>Octant Business Services</t>
+  </si>
+  <si>
+    <t>msanfacon@octant.us</t>
+  </si>
+  <si>
+    <t>Appraisal Express</t>
+  </si>
+  <si>
+    <t>The Jordan Real Estate Group</t>
+  </si>
+  <si>
+    <t>Pro-Mac Appraisals, LLC</t>
+  </si>
+  <si>
+    <t>Service 1st Valuation&amp; Settlement Service</t>
+  </si>
+  <si>
+    <t>WesBanco Bank, Inc</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
 Trainee can't inspect the property.
 Loan type is All.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan. 101 Wexford Bayne Rd. Wexford, Pennsylvania 15090</t>
   </si>
   <si>
-    <t xml:space="preserve">MIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valu Quest AMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Bank Financial Centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synergy Appraisal Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Got Appraisals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenders Allies LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emigrant Mortgage Company Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteck Valuation Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jgreen@protk.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only TD allows Trainee. Most other clients don’t allow trainee to sign the report. You can state their contribution in the addenda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secure Collateral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B B &amp; T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Alliance Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPRAISALS@WESTERNALLIANCEBANK.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">520-322-7711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granite State Appraisal Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eTEC Appraisal Management Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property Interlink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envision Lending Group, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burns &amp; Levinson LLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can inspect the property. Trainee can't sign the report. Please use trainee contributory addendum in the report.
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>Valu Quest AMC</t>
+  </si>
+  <si>
+    <t>First Bank Financial Centre</t>
+  </si>
+  <si>
+    <t>Synergy Appraisal Services</t>
+  </si>
+  <si>
+    <t>Got Appraisals</t>
+  </si>
+  <si>
+    <t>Lenders Allies LLC</t>
+  </si>
+  <si>
+    <t>Emigrant Mortgage Company Inc.</t>
+  </si>
+  <si>
+    <t>Proteck Valuation Services</t>
+  </si>
+  <si>
+    <t>jgreen@protk.com</t>
+  </si>
+  <si>
+    <t>Only TD allows Trainee. Most other clients don’t allow trainee to sign the report. You can state their contribution in the addenda.</t>
+  </si>
+  <si>
+    <t>Secure Collateral</t>
+  </si>
+  <si>
+    <t>B B &amp; T</t>
+  </si>
+  <si>
+    <t>Western Alliance Bank</t>
+  </si>
+  <si>
+    <t>APPRAISALS@WESTERNALLIANCEBANK.COM</t>
+  </si>
+  <si>
+    <t>520-322-7711</t>
+  </si>
+  <si>
+    <t>Granite State Appraisal Management</t>
+  </si>
+  <si>
+    <t>eTEC Appraisal Management Solutions</t>
+  </si>
+  <si>
+    <t>Property Interlink</t>
+  </si>
+  <si>
+    <t>Envision Lending Group, Inc.</t>
+  </si>
+  <si>
+    <t>Burns &amp; Levinson LLP</t>
+  </si>
+  <si>
+    <t>Trainee can inspect the property. Trainee can't sign the report. Please use trainee contributory addendum in the report.
 Trainees are not allowed for FHA loans. Please don't use trainee and trainee contributory addendum in FHA reports.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stars Speedy Title &amp; Appraisal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential Mortgage Services Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivy Mortgage, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HarborOne Mortgage, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HomeGate Settlement Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eMortgage Logic, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Real Estate Information Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Base Appraisal Mgt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin@homebaseamc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equity National</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property Sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collateral Management LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wells Fargo/ RVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crescent Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCS Valuations LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broad Street Valuations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lariba American Finance House</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northpoint Mortgage, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norman, Hubbard &amp; Associates, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhauds@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elite Appraisal Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incenter Appraisal Management, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incenteram-65599@messages.spurams.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppraiserLoft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank of Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading Cooperative Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>Stars Speedy Title &amp; Appraisal</t>
+  </si>
+  <si>
+    <t>Residential Mortgage Services Inc</t>
+  </si>
+  <si>
+    <t>Ivy Mortgage, Inc.</t>
+  </si>
+  <si>
+    <t>HarborOne Mortgage, LLC</t>
+  </si>
+  <si>
+    <t>HomeGate Settlement Services</t>
+  </si>
+  <si>
+    <t>eMortgage Logic, LLC</t>
+  </si>
+  <si>
+    <t>National Real Estate Information Service</t>
+  </si>
+  <si>
+    <t>Home Base Appraisal Mgt</t>
+  </si>
+  <si>
+    <t>admin@homebaseamc.com</t>
+  </si>
+  <si>
+    <t>Equity National</t>
+  </si>
+  <si>
+    <t>Property Sciences</t>
+  </si>
+  <si>
+    <t>Data Search</t>
+  </si>
+  <si>
+    <t>Collateral Management LLC</t>
+  </si>
+  <si>
+    <t>Wells Fargo/ RVS</t>
+  </si>
+  <si>
+    <t>Crescent Mortgage</t>
+  </si>
+  <si>
+    <t>MCS Valuations LLC</t>
+  </si>
+  <si>
+    <t>Broad Street Valuations</t>
+  </si>
+  <si>
+    <t>Lariba American Finance House</t>
+  </si>
+  <si>
+    <t>Northpoint Mortgage, Inc.</t>
+  </si>
+  <si>
+    <t>Norman, Hubbard &amp; Associates, Inc</t>
+  </si>
+  <si>
+    <t>nhauds@gmail.com</t>
+  </si>
+  <si>
+    <t>Elite Appraisal Management</t>
+  </si>
+  <si>
+    <t>Incenter Appraisal Management, LLC</t>
+  </si>
+  <si>
+    <t>incenteram-65599@messages.spurams.com</t>
+  </si>
+  <si>
+    <t>AppraiserLoft</t>
+  </si>
+  <si>
+    <t>Bank of Colorado</t>
+  </si>
+  <si>
+    <t>Reading Cooperative Bank</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
 Trainee can't inspect the property.
 Loan type is All.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan. Samantha Smith</t>
   </si>
   <si>
-    <t xml:space="preserve">Samantha Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Value Real Estate LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fastapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastapp-45896@messages.spurams.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WCCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success Mortgage Partners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infinity Direct Asset Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraiser Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kairos Appraisal Services LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only for this client:  One American Lender, for different lenders we need to check with them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Appraisal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker Price Opinion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First American eAppraiseIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFM Lending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nfm@myvalutrac.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBA Financial Services Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epic Real Estate Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeder National</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSA Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commonwealth Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeaderOne Financial Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select Appraisal Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adams Community Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortgage Management Consulting, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD BANK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCAPCTR@TD.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First State Bank Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valuation Connect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraisals@valuationconnect.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nations Valuation Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nvsvendors@nationsvs.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frisco Lender Services, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountsPayableProcessing@fairwaymc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationwide BPO's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMR Appraisals LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenders Choice AMC LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSNB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academy Mortgage Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMC Links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equity Resources, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consolidated Analytics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFO@CA-USA.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssetVal Appraisal llc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>Samantha Smith</t>
+  </si>
+  <si>
+    <t>Home Value Real Estate LLC</t>
+  </si>
+  <si>
+    <t>Fastapp</t>
+  </si>
+  <si>
+    <t>fastapp-45896@messages.spurams.com</t>
+  </si>
+  <si>
+    <t>WCCI</t>
+  </si>
+  <si>
+    <t>Success Mortgage Partners</t>
+  </si>
+  <si>
+    <t>Infinity Direct Asset Management</t>
+  </si>
+  <si>
+    <t>Appraiser Zone</t>
+  </si>
+  <si>
+    <t>Appraisal Mark</t>
+  </si>
+  <si>
+    <t>Kairos Appraisal Services LLC</t>
+  </si>
+  <si>
+    <t>Only for this client:  One American Lender, for different lenders we need to check with them.</t>
+  </si>
+  <si>
+    <t>United States Appraisal</t>
+  </si>
+  <si>
+    <t>Broker Price Opinion</t>
+  </si>
+  <si>
+    <t>First American eAppraiseIT</t>
+  </si>
+  <si>
+    <t>NFM Lending</t>
+  </si>
+  <si>
+    <t>nfm@myvalutrac.com</t>
+  </si>
+  <si>
+    <t>DBA Financial Services Inc.</t>
+  </si>
+  <si>
+    <t>Epic Real Estate Solutions</t>
+  </si>
+  <si>
+    <t>Jeder National</t>
+  </si>
+  <si>
+    <t>MSA Mortgage</t>
+  </si>
+  <si>
+    <t>Commonwealth Mortgage</t>
+  </si>
+  <si>
+    <t>LeaderOne Financial Corporation</t>
+  </si>
+  <si>
+    <t>Select Appraisal Management</t>
+  </si>
+  <si>
+    <t>Adams Community Bank</t>
+  </si>
+  <si>
+    <t>Mortgage Management Consulting, Inc.</t>
+  </si>
+  <si>
+    <t>TD BANK</t>
+  </si>
+  <si>
+    <t>CCAPCTR@TD.COM</t>
+  </si>
+  <si>
+    <t>First State Bank Mortgage</t>
+  </si>
+  <si>
+    <t>Valuation Connect</t>
+  </si>
+  <si>
+    <t>appraisals@valuationconnect.com</t>
+  </si>
+  <si>
+    <t>Nations Valuation Services</t>
+  </si>
+  <si>
+    <t>nvsvendors@nationsvs.com</t>
+  </si>
+  <si>
+    <t>Frisco Lender Services, LLC</t>
+  </si>
+  <si>
+    <t>AccountsPayableProcessing@fairwaymc.com</t>
+  </si>
+  <si>
+    <t>Nationwide BPO's</t>
+  </si>
+  <si>
+    <t>CMR Appraisals LLC</t>
+  </si>
+  <si>
+    <t>Lenders Choice AMC LLC</t>
+  </si>
+  <si>
+    <t>FSNB</t>
+  </si>
+  <si>
+    <t>Academy Mortgage Corporation</t>
+  </si>
+  <si>
+    <t>AMC Links</t>
+  </si>
+  <si>
+    <t>Equity Resources, Inc</t>
+  </si>
+  <si>
+    <t>Consolidated Analytics</t>
+  </si>
+  <si>
+    <t>INFO@CA-USA.COM</t>
+  </si>
+  <si>
+    <t>AssetVal Appraisal llc</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
  Trainee can't inspect the property.
  Loan type is All.
 Trainee are not allowed for FHA loan. 469.802.0374</t>
   </si>
   <si>
-    <t xml:space="preserve">469-802-0374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WF Wealth Mangagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberty Reverse Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORE Capital Partners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waterstone Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colliers International Valuation &amp; Advisory Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niemi Appraisal Placement Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info@niemiappraisal.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance AMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valuation Services AMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team@vsamc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolute Value Management Corp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Look Appraisals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeastern Appraisal Associates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberty Home Equity Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Choice Loan Services Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay Equity LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraisaldesk@bayeq.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Links Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kylie.Crute@xome.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patch of Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valutrust Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ValutrustSolutions@valutrust.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRReview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stewart Lender Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REM Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Chet Rogers, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allstate Appraisal, LP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valuation Partners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandy.Neu@opteonusa.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Mortgage Services, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valuationservices@totalmortgage.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaSatyajited Appriasal Service, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lend Mark Mortgage Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haskell Kennedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennedyrealpropertyappraisers@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heartland Valuation Service, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>469-802-0374</t>
+  </si>
+  <si>
+    <t>WF Wealth Mangagement</t>
+  </si>
+  <si>
+    <t>Liberty Reverse Mortgage</t>
+  </si>
+  <si>
+    <t>CORE Capital Partners</t>
+  </si>
+  <si>
+    <t>Waterstone Mortgage</t>
+  </si>
+  <si>
+    <t>Colliers International Valuation &amp; Advisory Services</t>
+  </si>
+  <si>
+    <t>Niemi Appraisal Placement Inc</t>
+  </si>
+  <si>
+    <t>info@niemiappraisal.com</t>
+  </si>
+  <si>
+    <t>Alliance AMC</t>
+  </si>
+  <si>
+    <t>Valuation Services AMC</t>
+  </si>
+  <si>
+    <t>team@vsamc.com</t>
+  </si>
+  <si>
+    <t>Absolute Value Management Corp.</t>
+  </si>
+  <si>
+    <t>First Look Appraisals</t>
+  </si>
+  <si>
+    <t>Northeastern Appraisal Associates</t>
+  </si>
+  <si>
+    <t>Liberty Home Equity Solutions</t>
+  </si>
+  <si>
+    <t>First Choice Loan Services Inc</t>
+  </si>
+  <si>
+    <t>Bay Equity LLC</t>
+  </si>
+  <si>
+    <t>appraisaldesk@bayeq.com</t>
+  </si>
+  <si>
+    <t>Appraisal Links Inc</t>
+  </si>
+  <si>
+    <t>Kylie.Crute@xome.com</t>
+  </si>
+  <si>
+    <t>Patch of Land</t>
+  </si>
+  <si>
+    <t>Valutrust Solutions</t>
+  </si>
+  <si>
+    <t>ValutrustSolutions@valutrust.com</t>
+  </si>
+  <si>
+    <t>RRReview</t>
+  </si>
+  <si>
+    <t>Stewart Lender Services</t>
+  </si>
+  <si>
+    <t>REM Corporation</t>
+  </si>
+  <si>
+    <t>J. Chet Rogers, LLC</t>
+  </si>
+  <si>
+    <t>Allstate Appraisal, LP</t>
+  </si>
+  <si>
+    <t>Valuation Partners</t>
+  </si>
+  <si>
+    <t>Sandy.Neu@opteonusa.com</t>
+  </si>
+  <si>
+    <t>Total Mortgage Services, LLC</t>
+  </si>
+  <si>
+    <t>valuationservices@totalmortgage.com</t>
+  </si>
+  <si>
+    <t>MaSatyajited Appriasal Service, Inc</t>
+  </si>
+  <si>
+    <t>Lend Mark Mortgage Corporation</t>
+  </si>
+  <si>
+    <t>Haskell Kennedy</t>
+  </si>
+  <si>
+    <t>Kennedyrealpropertyappraisers@gmail.com</t>
+  </si>
+  <si>
+    <t>Heartland Valuation Service, LLC</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
 Trainee can't inspect the property.
 Loan type is 1004 UAD Single Family.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan.</t>
   </si>
   <si>
-    <t xml:space="preserve">Eastern Bank.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcontinental Valuations Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al Simeone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCV Murcor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRI A Mortgage Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SettlementOne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magno Cashman Appraisal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD ADVISORS LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can inspect the property. Trainee can sign the report. Please use trainee contributory addendum in the report. Trainees are not allowed for FHA loans. Please don't use trainee and trainee contributory addendum in FHA reports.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClearView Valuation Services, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lighthouse Real Estate Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Better Mortgag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendormgr@better.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info@propertyrate.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWBC Lending/Qualitiy Valuation Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21st Century Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATEWIDE REPORTS, INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dart Appraisal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcarter@dartappraisal.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Residential Mortgage Network Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Independent Settlement Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can sign the report.
+    <t>Eastern Bank.</t>
+  </si>
+  <si>
+    <t>Transcontinental Valuations Inc</t>
+  </si>
+  <si>
+    <t>Al Simeone</t>
+  </si>
+  <si>
+    <t>PCV Murcor</t>
+  </si>
+  <si>
+    <t>SRI A Mortgage Company</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>SettlementOne</t>
+  </si>
+  <si>
+    <t>Magno Cashman Appraisal</t>
+  </si>
+  <si>
+    <t>RD ADVISORS LLC</t>
+  </si>
+  <si>
+    <t>Trainee can inspect the property. Trainee can sign the report. Please use trainee contributory addendum in the report. Trainees are not allowed for FHA loans. Please don't use trainee and trainee contributory addendum in FHA reports.</t>
+  </si>
+  <si>
+    <t>ClearView Valuation Services, LLC</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Lighthouse Real Estate Solutions</t>
+  </si>
+  <si>
+    <t>Better Mortgag</t>
+  </si>
+  <si>
+    <t>vendormgr@better.com</t>
+  </si>
+  <si>
+    <t>Property Rate</t>
+  </si>
+  <si>
+    <t>info@propertyrate.com</t>
+  </si>
+  <si>
+    <t>SWBC Lending/Qualitiy Valuation Services</t>
+  </si>
+  <si>
+    <t>21st Century Bank</t>
+  </si>
+  <si>
+    <t>STATEWIDE REPORTS, INC.</t>
+  </si>
+  <si>
+    <t>Dart Appraisal</t>
+  </si>
+  <si>
+    <t>tcarter@dartappraisal.com</t>
+  </si>
+  <si>
+    <t>First Residential Mortgage Network Inc</t>
+  </si>
+  <si>
+    <t>Independent Settlement Services</t>
+  </si>
+  <si>
+    <t>Trainee can sign the report.
 Trainee can't inspect the property.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan.
 Order by order basis. Check with the client first.</t>
   </si>
   <si>
-    <t xml:space="preserve">Order by order basis. Check with the client first.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valley National Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Republic Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accountspayableteam@firstrepublic.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential Finance Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elliott &amp; Company Appraisers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Linx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEPTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VanDyk Mortgage Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraisals@vandykmortgage.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coester Appraisal Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draper and Kramer Mortgage Corp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ap@dkmortgage.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationwide Appraisal Network LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status@nan-amc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvard University Employees Credit Union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huecu_ap@harvard.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvard allows whatever if as long as we follow state rules.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renovo Financial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brianna.dizeo@renovofinancial.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Analytics, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crowd Lending Fund One, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Fin Corp/ Star Financial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millennium Appriasal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First American Equity Loan Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niemi Appraisal Placement, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Shore Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraisals@northshore-bank.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gang Hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSET MANAGEMENT OUTSOURCING SERVICES, INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>Order by order basis. Check with the client first.</t>
+  </si>
+  <si>
+    <t>Valley National Bank</t>
+  </si>
+  <si>
+    <t>First Republic Bank</t>
+  </si>
+  <si>
+    <t>accountspayableteam@firstrepublic.com</t>
+  </si>
+  <si>
+    <t>Residential Finance Corporation</t>
+  </si>
+  <si>
+    <t>Elliott &amp; Company Appraisers</t>
+  </si>
+  <si>
+    <t>Appraisal Linx</t>
+  </si>
+  <si>
+    <t>VEPTAS</t>
+  </si>
+  <si>
+    <t>VanDyk Mortgage Corporation</t>
+  </si>
+  <si>
+    <t>appraisals@vandykmortgage.com</t>
+  </si>
+  <si>
+    <t>Coester Appraisal Group</t>
+  </si>
+  <si>
+    <t>Draper and Kramer Mortgage Corp</t>
+  </si>
+  <si>
+    <t>ap@dkmortgage.com</t>
+  </si>
+  <si>
+    <t>Nationwide Appraisal Network LLC</t>
+  </si>
+  <si>
+    <t>status@nan-amc.com</t>
+  </si>
+  <si>
+    <t>Capital Solutions</t>
+  </si>
+  <si>
+    <t>Harvard University Employees Credit Union</t>
+  </si>
+  <si>
+    <t>huecu_ap@harvard.edu</t>
+  </si>
+  <si>
+    <t>Harvard allows whatever if as long as we follow state rules.</t>
+  </si>
+  <si>
+    <t>square Inc</t>
+  </si>
+  <si>
+    <t>Renovo Financial</t>
+  </si>
+  <si>
+    <t>brianna.dizeo@renovofinancial.com</t>
+  </si>
+  <si>
+    <t>1st Analytics, Inc</t>
+  </si>
+  <si>
+    <t>Crowd Lending Fund One, LLC</t>
+  </si>
+  <si>
+    <t>St Fin Corp/ Star Financial</t>
+  </si>
+  <si>
+    <t>Millennium Appriasal</t>
+  </si>
+  <si>
+    <t>First American Equity Loan Services</t>
+  </si>
+  <si>
+    <t>Niemi Appraisal Placement, Inc</t>
+  </si>
+  <si>
+    <t>North Shore Bank</t>
+  </si>
+  <si>
+    <t>appraisals@northshore-bank.com</t>
+  </si>
+  <si>
+    <t>Gang Hu</t>
+  </si>
+  <si>
+    <t>ASSET MANAGEMENT OUTSOURCING SERVICES, INC.</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
 Trainee can't inspect the property.
 Loan type is All.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan. Jessica L. Lamberson</t>
   </si>
   <si>
-    <t xml:space="preserve">Jessica L. Lamberson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield Savings Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>Jessica L. Lamberson</t>
+  </si>
+  <si>
+    <t>Greenfield Savings Bank</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
 Trainee can't inspect the property.
 Loan type is All.
 Please Add trainee contributory addendum.
 Trainees are not allowed for FHA loan. Mick Loughran</t>
   </si>
   <si>
-    <t xml:space="preserve">Mick Loughran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES. Net / USRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can't sign the report.
+    <t>Mick Loughran</t>
+  </si>
+  <si>
+    <t>RES. Net / USRES</t>
+  </si>
+  <si>
+    <t>Auto Group</t>
+  </si>
+  <si>
+    <t>Trainee can't sign the report.
  Trainee can't inspect the property.
  Loan type is All.
 Trainee are not allowed for FHA loan.</t>
   </si>
   <si>
-    <t xml:space="preserve">Paul Mathews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">derekreynolds99@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They don’t allow trainee.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabal Palm Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangor Savings Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Appraisal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orders@boston-appraisal.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Portfolio Mortgage Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accurate Title Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nbarnes@accurategroup.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trainee can sign the report. Only supervisor can inspect. Please check client requirement if they ask for License and E&amp;O.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real Estate Valuation Partners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Shield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationwide Property &amp; Appraisal Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appraisals@onestopappraisals.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows only for private lender.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank of Jackson Hole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307-733-8064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tayabul Salam Loan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appraisal Management Services of Americ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamarisk Appraisals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Gorilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Savings of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regions Bank d/b/a Regions Mortgage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landsafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paramount Residential Mortgage Group, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opteon AMC, Inc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rongeraneo@aol.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ Home VMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service@AtHomeVMS.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LendersAid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Appraisal Firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIR Appraisal Management Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Easton Savings Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harpley Appraisal Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value Net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trimavin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationwide Valuation Solutions, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meridian Asset Services, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Appraisal Ltd</t>
+    <t>Paul Mathews</t>
+  </si>
+  <si>
+    <t>Clear Capital</t>
+  </si>
+  <si>
+    <t>derekreynolds99@gmail.com</t>
+  </si>
+  <si>
+    <t>They don’t allow trainee.</t>
+  </si>
+  <si>
+    <t>Sabal Palm Bank</t>
+  </si>
+  <si>
+    <t>Bangor Savings Bank</t>
+  </si>
+  <si>
+    <t>Private Appraisal</t>
+  </si>
+  <si>
+    <t>orders@boston-appraisal.com</t>
+  </si>
+  <si>
+    <t>American Portfolio Mortgage Corporation</t>
+  </si>
+  <si>
+    <t>Accurate Title Group</t>
+  </si>
+  <si>
+    <t>nbarnes@accurategroup.com</t>
+  </si>
+  <si>
+    <t>Trainee can sign the report. Only supervisor can inspect. Please check client requirement if they ask for License and E&amp;O.</t>
+  </si>
+  <si>
+    <t>Real Estate Valuation Partners</t>
+  </si>
+  <si>
+    <t>Appraisal Shield</t>
+  </si>
+  <si>
+    <t>Nationwide Property &amp; Appraisal Services</t>
+  </si>
+  <si>
+    <t>appraisals@onestopappraisals.com</t>
+  </si>
+  <si>
+    <t>Allows only for private lender.</t>
+  </si>
+  <si>
+    <t>Bank of Jackson Hole</t>
+  </si>
+  <si>
+    <t>307-733-8064</t>
+  </si>
+  <si>
+    <t>Tayabul Salam Loan</t>
+  </si>
+  <si>
+    <t>Appraisal Management Services of Americ</t>
+  </si>
+  <si>
+    <t>Tamarisk Appraisals</t>
+  </si>
+  <si>
+    <t>Enterprise Bank</t>
+  </si>
+  <si>
+    <t>Land Gorilla</t>
+  </si>
+  <si>
+    <t>Home Savings of America</t>
+  </si>
+  <si>
+    <t>Regions Bank d/b/a Regions Mortgage</t>
+  </si>
+  <si>
+    <t>Landsafe</t>
+  </si>
+  <si>
+    <t>Paramount Residential Mortgage Group, Inc</t>
+  </si>
+  <si>
+    <t>Opteon AMC, Inc</t>
+  </si>
+  <si>
+    <t>rongeraneo@aol.com</t>
+  </si>
+  <si>
+    <t>@ Home VMS</t>
+  </si>
+  <si>
+    <t>Service@AtHomeVMS.com</t>
+  </si>
+  <si>
+    <t>LendersAid</t>
+  </si>
+  <si>
+    <t>The Appraisal Firm</t>
+  </si>
+  <si>
+    <t>SIR Appraisal Management Division</t>
+  </si>
+  <si>
+    <t>North Easton Savings Bank</t>
+  </si>
+  <si>
+    <t>Harpley Appraisal Management</t>
+  </si>
+  <si>
+    <t>Value Net</t>
+  </si>
+  <si>
+    <t>Trimavin</t>
+  </si>
+  <si>
+    <t>Nationwide Valuation Solutions, LLC</t>
+  </si>
+  <si>
+    <t>Meridian Asset Services, Inc.</t>
+  </si>
+  <si>
+    <t>Golden Appraisal Ltd</t>
+  </si>
+  <si>
+    <t>a@b.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0.00_);[RED]&quot;($&quot;#,##0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1626,24 +1633,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1658,98 +1658,372 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J378"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK378"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="32.29"/>
+    <col min="1" max="1025" width="32.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +2055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1794,17 +2068,20 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>505</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1823,14 +2100,14 @@
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1844,7 +2121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1858,7 +2135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +2149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,14 +2162,14 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1914,14 +2191,14 @@
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>10</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1935,7 +2212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1943,7 +2220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1962,14 +2239,14 @@
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3">
         <v>15.5</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1983,7 +2260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1997,7 +2274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2011,7 +2288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,7 +2302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2033,7 +2310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2055,14 +2332,14 @@
       <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="3">
         <v>13</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -2076,7 +2353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2090,7 +2367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -2104,7 +2381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2118,7 +2395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -2132,7 +2409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2146,7 +2423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -2165,14 +2442,14 @@
       <c r="H24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -2186,7 +2463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -2200,7 +2477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -2214,7 +2491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -2227,14 +2504,14 @@
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -2248,7 +2525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -2262,7 +2539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -2276,7 +2553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2290,7 +2567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -2304,7 +2581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2318,7 +2595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -2326,7 +2603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2340,7 +2617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2354,7 +2631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -2373,14 +2650,14 @@
       <c r="H38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -2399,14 +2676,14 @@
       <c r="H39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -2425,14 +2702,14 @@
       <c r="H40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>68</v>
       </c>
@@ -2446,7 +2723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -2454,7 +2731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
@@ -2467,14 +2744,14 @@
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
@@ -2488,7 +2765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -2496,7 +2773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
@@ -2515,14 +2792,14 @@
       <c r="H46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="3" t="n">
+      <c r="I46" s="3">
         <v>10</v>
       </c>
-      <c r="J46" s="3" t="n">
+      <c r="J46" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>75</v>
       </c>
@@ -2536,7 +2813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>76</v>
       </c>
@@ -2550,7 +2827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>77</v>
       </c>
@@ -2564,7 +2841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
@@ -2578,7 +2855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>79</v>
       </c>
@@ -2592,7 +2869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2606,7 +2883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>81</v>
       </c>
@@ -2620,7 +2897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -2633,14 +2910,14 @@
       <c r="D54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="3" t="n">
+      <c r="I54" s="3">
         <v>10</v>
       </c>
-      <c r="J54" s="3" t="n">
+      <c r="J54" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>83</v>
       </c>
@@ -2654,7 +2931,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>85</v>
       </c>
@@ -2668,7 +2945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
@@ -2682,7 +2959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -2696,7 +2973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>88</v>
       </c>
@@ -2715,14 +2992,14 @@
       <c r="H59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>90</v>
       </c>
@@ -2730,7 +3007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>91</v>
       </c>
@@ -2738,7 +3015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>92</v>
       </c>
@@ -2751,14 +3028,14 @@
       <c r="D62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>93</v>
       </c>
@@ -2777,14 +3054,14 @@
       <c r="H63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>95</v>
       </c>
@@ -2798,7 +3075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>96</v>
       </c>
@@ -2812,7 +3089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>97</v>
       </c>
@@ -2826,7 +3103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>98</v>
       </c>
@@ -2837,7 +3114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>99</v>
       </c>
@@ -2848,7 +3125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>100</v>
       </c>
@@ -2867,14 +3144,14 @@
       <c r="H69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>102</v>
       </c>
@@ -2893,14 +3170,14 @@
       <c r="H70" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="3" t="n">
+      <c r="I70" s="3">
         <v>8</v>
       </c>
-      <c r="J70" s="3" t="n">
+      <c r="J70" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
@@ -2914,7 +3191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>105</v>
       </c>
@@ -2928,7 +3205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
@@ -2942,7 +3219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>107</v>
       </c>
@@ -2956,7 +3233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>108</v>
       </c>
@@ -2975,14 +3252,14 @@
       <c r="H75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I75" s="3" t="n">
+      <c r="I75" s="3">
         <v>10</v>
       </c>
-      <c r="J75" s="3" t="n">
+      <c r="J75" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>110</v>
       </c>
@@ -2996,7 +3273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>111</v>
       </c>
@@ -3009,14 +3286,14 @@
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I77" s="3" t="n">
+      <c r="I77" s="3">
         <v>15.5</v>
       </c>
-      <c r="J77" s="3" t="n">
+      <c r="J77" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>112</v>
       </c>
@@ -3029,14 +3306,14 @@
       <c r="D78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>113</v>
       </c>
@@ -3050,7 +3327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>114</v>
       </c>
@@ -3064,7 +3341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>115</v>
       </c>
@@ -3078,7 +3355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>116</v>
       </c>
@@ -3092,7 +3369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>117</v>
       </c>
@@ -3114,14 +3391,14 @@
       <c r="H83" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I83" s="3" t="n">
+      <c r="I83" s="3">
         <v>10</v>
       </c>
-      <c r="J83" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>121</v>
       </c>
@@ -3134,14 +3411,14 @@
       <c r="D84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I84" s="3">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>122</v>
       </c>
@@ -3155,7 +3432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>123</v>
       </c>
@@ -3168,14 +3445,14 @@
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I86" s="3" t="n">
+      <c r="I86" s="3">
         <v>10</v>
       </c>
-      <c r="J86" s="3" t="n">
+      <c r="J86" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>124</v>
       </c>
@@ -3183,7 +3460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>125</v>
       </c>
@@ -3196,14 +3473,14 @@
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="3" t="n">
+      <c r="I88" s="3">
         <v>10</v>
       </c>
-      <c r="J88" s="3" t="n">
+      <c r="J88" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>126</v>
       </c>
@@ -3217,7 +3494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>127</v>
       </c>
@@ -3231,7 +3508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>128</v>
       </c>
@@ -3245,7 +3522,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>129</v>
       </c>
@@ -3259,7 +3536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>130</v>
       </c>
@@ -3273,7 +3550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>131</v>
       </c>
@@ -3287,7 +3564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>132</v>
       </c>
@@ -3301,7 +3578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>133</v>
       </c>
@@ -3315,7 +3592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>134</v>
       </c>
@@ -3329,7 +3606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>135</v>
       </c>
@@ -3343,7 +3620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>136</v>
       </c>
@@ -3357,7 +3634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>137</v>
       </c>
@@ -3376,14 +3653,14 @@
       <c r="H100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>139</v>
       </c>
@@ -3397,7 +3674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>140</v>
       </c>
@@ -3411,7 +3688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>141</v>
       </c>
@@ -3425,7 +3702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>142</v>
       </c>
@@ -3438,14 +3715,14 @@
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I104" s="3" t="n">
+      <c r="I104" s="3">
         <v>13.5</v>
       </c>
-      <c r="J104" s="3" t="n">
+      <c r="J104" s="3">
         <v>13.5</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>143</v>
       </c>
@@ -3464,14 +3741,14 @@
       <c r="H105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I105" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I105" s="3">
+        <v>0</v>
+      </c>
+      <c r="J105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>145</v>
       </c>
@@ -3485,7 +3762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>146</v>
       </c>
@@ -3499,7 +3776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>147</v>
       </c>
@@ -3513,7 +3790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>148</v>
       </c>
@@ -3526,14 +3803,14 @@
       <c r="D109" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I109" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I109" s="3">
+        <v>0</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>149</v>
       </c>
@@ -3547,7 +3824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>150</v>
       </c>
@@ -3561,7 +3838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>151</v>
       </c>
@@ -3575,7 +3852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>152</v>
       </c>
@@ -3592,7 +3869,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>155</v>
       </c>
@@ -3606,7 +3883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>156</v>
       </c>
@@ -3620,7 +3897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>157</v>
       </c>
@@ -3634,7 +3911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>158</v>
       </c>
@@ -3648,7 +3925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>159</v>
       </c>
@@ -3665,7 +3942,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>162</v>
       </c>
@@ -3679,7 +3956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>163</v>
       </c>
@@ -3698,14 +3975,14 @@
       <c r="H120" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I120" s="3" t="n">
+      <c r="I120" s="3">
         <v>15.5</v>
       </c>
-      <c r="J120" s="3" t="n">
+      <c r="J120" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>165</v>
       </c>
@@ -3713,7 +3990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>166</v>
       </c>
@@ -3732,14 +4009,14 @@
       <c r="H122" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I122" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I122" s="3">
+        <v>0</v>
+      </c>
+      <c r="J122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>168</v>
       </c>
@@ -3753,7 +4030,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>170</v>
       </c>
@@ -3772,14 +4049,14 @@
       <c r="H124" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I124" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I124" s="3">
+        <v>0</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>172</v>
       </c>
@@ -3787,7 +4064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>173</v>
       </c>
@@ -3803,14 +4080,14 @@
       <c r="G126" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I126" s="3" t="n">
+      <c r="I126" s="3">
         <v>15.5</v>
       </c>
-      <c r="J126" s="3" t="n">
+      <c r="J126" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>175</v>
       </c>
@@ -3824,7 +4101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>176</v>
       </c>
@@ -3832,7 +4109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>177</v>
       </c>
@@ -3846,7 +4123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>178</v>
       </c>
@@ -3854,7 +4131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>179</v>
       </c>
@@ -3867,14 +4144,14 @@
       <c r="D131" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I131" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I131" s="3">
+        <v>0</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>180</v>
       </c>
@@ -3888,7 +4165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>181</v>
       </c>
@@ -3904,14 +4181,14 @@
       <c r="F133" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I133" s="3" t="n">
+      <c r="I133" s="3">
         <v>15.5</v>
       </c>
-      <c r="J133" s="3" t="n">
+      <c r="J133" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>182</v>
       </c>
@@ -3925,7 +4202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>183</v>
       </c>
@@ -3944,14 +4221,14 @@
       <c r="H135" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I135" s="3">
+        <v>0</v>
+      </c>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>185</v>
       </c>
@@ -3965,7 +4242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>186</v>
       </c>
@@ -3979,7 +4256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>187</v>
       </c>
@@ -3993,7 +4270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>188</v>
       </c>
@@ -4006,14 +4283,14 @@
       <c r="D139" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I139" s="3" t="n">
+      <c r="I139" s="3">
         <v>14.99</v>
       </c>
-      <c r="J139" s="3" t="n">
+      <c r="J139" s="3">
         <v>14.99</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>189</v>
       </c>
@@ -4027,7 +4304,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>191</v>
       </c>
@@ -4040,14 +4317,14 @@
       <c r="D141" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I141" s="3" t="n">
+      <c r="I141" s="3">
         <v>6</v>
       </c>
-      <c r="J141" s="3" t="n">
+      <c r="J141" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>192</v>
       </c>
@@ -4069,14 +4346,14 @@
       <c r="H142" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I142" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I142" s="3">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>195</v>
       </c>
@@ -4090,7 +4367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>196</v>
       </c>
@@ -4103,14 +4380,14 @@
       <c r="D144" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I144" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I144" s="3">
+        <v>0</v>
+      </c>
+      <c r="J144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>197</v>
       </c>
@@ -4124,7 +4401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>198</v>
       </c>
@@ -4143,14 +4420,14 @@
       <c r="H146" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I146" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I146" s="3">
+        <v>0</v>
+      </c>
+      <c r="J146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>200</v>
       </c>
@@ -4163,14 +4440,14 @@
       <c r="D147" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I147" s="3" t="n">
+      <c r="I147" s="3">
         <v>28</v>
       </c>
-      <c r="J147" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>201</v>
       </c>
@@ -4184,7 +4461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>202</v>
       </c>
@@ -4203,14 +4480,14 @@
       <c r="H149" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I149" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I149" s="3">
+        <v>0</v>
+      </c>
+      <c r="J149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>204</v>
       </c>
@@ -4218,7 +4495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>205</v>
       </c>
@@ -4237,14 +4514,14 @@
       <c r="H151" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I151" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I151" s="3">
+        <v>0</v>
+      </c>
+      <c r="J151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>207</v>
       </c>
@@ -4258,7 +4535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>208</v>
       </c>
@@ -4266,7 +4543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>209</v>
       </c>
@@ -4279,14 +4556,14 @@
       <c r="D154" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I154" s="3" t="n">
+      <c r="I154" s="3">
         <v>15.5</v>
       </c>
-      <c r="J154" s="3" t="n">
+      <c r="J154" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>210</v>
       </c>
@@ -4300,7 +4577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>211</v>
       </c>
@@ -4314,7 +4591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>212</v>
       </c>
@@ -4328,7 +4605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>213</v>
       </c>
@@ -4347,14 +4624,14 @@
       <c r="H158" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I158" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I158" s="3">
+        <v>0</v>
+      </c>
+      <c r="J158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>215</v>
       </c>
@@ -4368,7 +4645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>216</v>
       </c>
@@ -4382,7 +4659,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>217</v>
       </c>
@@ -4396,7 +4673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>218</v>
       </c>
@@ -4409,14 +4686,14 @@
       <c r="D162" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I162" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I162" s="3">
+        <v>0</v>
+      </c>
+      <c r="J162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>219</v>
       </c>
@@ -4430,7 +4707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>220</v>
       </c>
@@ -4446,14 +4723,14 @@
       <c r="G164" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I164" s="3" t="n">
+      <c r="I164" s="3">
         <v>10</v>
       </c>
-      <c r="J164" s="3" t="n">
+      <c r="J164" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>222</v>
       </c>
@@ -4467,7 +4744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>223</v>
       </c>
@@ -4481,7 +4758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>224</v>
       </c>
@@ -4495,7 +4772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>225</v>
       </c>
@@ -4509,7 +4786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>226</v>
       </c>
@@ -4523,7 +4800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>227</v>
       </c>
@@ -4542,14 +4819,14 @@
       <c r="H170" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I170" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I170" s="3">
+        <v>0</v>
+      </c>
+      <c r="J170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>229</v>
       </c>
@@ -4563,7 +4840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>230</v>
       </c>
@@ -4577,7 +4854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>231</v>
       </c>
@@ -4591,7 +4868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>232</v>
       </c>
@@ -4605,7 +4882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>233</v>
       </c>
@@ -4619,7 +4896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>234</v>
       </c>
@@ -4633,7 +4910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>235</v>
       </c>
@@ -4647,7 +4924,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>236</v>
       </c>
@@ -4661,7 +4938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>237</v>
       </c>
@@ -4680,14 +4957,14 @@
       <c r="H179" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I179" s="3" t="n">
+      <c r="I179" s="3">
         <v>7</v>
       </c>
-      <c r="J179" s="3" t="n">
+      <c r="J179" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>239</v>
       </c>
@@ -4709,14 +4986,14 @@
       <c r="H180" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I180" s="3" t="n">
+      <c r="I180" s="3">
         <v>15</v>
       </c>
-      <c r="J180" s="3" t="n">
+      <c r="J180" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>242</v>
       </c>
@@ -4730,7 +5007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>243</v>
       </c>
@@ -4738,7 +5015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>244</v>
       </c>
@@ -4751,14 +5028,14 @@
       <c r="D183" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I183" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I183" s="3">
+        <v>0</v>
+      </c>
+      <c r="J183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>245</v>
       </c>
@@ -4772,7 +5049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>246</v>
       </c>
@@ -4786,7 +5063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>247</v>
       </c>
@@ -4800,7 +5077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>248</v>
       </c>
@@ -4814,7 +5091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>249</v>
       </c>
@@ -4828,7 +5105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>250</v>
       </c>
@@ -4841,14 +5118,14 @@
       <c r="D189" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I189" s="3" t="n">
+      <c r="I189" s="3">
         <v>15.5</v>
       </c>
-      <c r="J189" s="3" t="n">
+      <c r="J189" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>251</v>
       </c>
@@ -4865,7 +5142,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>254</v>
       </c>
@@ -4879,7 +5156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>255</v>
       </c>
@@ -4898,14 +5175,14 @@
       <c r="H192" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I192" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I192" s="3">
+        <v>0</v>
+      </c>
+      <c r="J192" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>257</v>
       </c>
@@ -4919,7 +5196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>258</v>
       </c>
@@ -4938,14 +5215,14 @@
       <c r="H194" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I194" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I194" s="3">
+        <v>0</v>
+      </c>
+      <c r="J194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>260</v>
       </c>
@@ -4959,7 +5236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>261</v>
       </c>
@@ -4973,7 +5250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>262</v>
       </c>
@@ -4986,14 +5263,14 @@
       <c r="D197" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I197" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I197" s="3">
+        <v>0</v>
+      </c>
+      <c r="J197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>263</v>
       </c>
@@ -5007,7 +5284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>264</v>
       </c>
@@ -5021,7 +5298,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>266</v>
       </c>
@@ -5035,7 +5312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>267</v>
       </c>
@@ -5049,7 +5326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>268</v>
       </c>
@@ -5063,7 +5340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>269</v>
       </c>
@@ -5077,7 +5354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>270</v>
       </c>
@@ -5091,7 +5368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>271</v>
       </c>
@@ -5105,7 +5382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>272</v>
       </c>
@@ -5119,7 +5396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>273</v>
       </c>
@@ -5141,14 +5418,14 @@
       <c r="H207" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I207" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I207" s="3">
+        <v>0</v>
+      </c>
+      <c r="J207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>276</v>
       </c>
@@ -5162,7 +5439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>277</v>
       </c>
@@ -5176,7 +5453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>278</v>
       </c>
@@ -5195,14 +5472,14 @@
       <c r="F210" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="I210" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I210" s="3">
+        <v>0</v>
+      </c>
+      <c r="J210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>281</v>
       </c>
@@ -5215,14 +5492,14 @@
       <c r="D211" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I211" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I211" s="3">
+        <v>0</v>
+      </c>
+      <c r="J211" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>282</v>
       </c>
@@ -5236,7 +5513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>283</v>
       </c>
@@ -5250,7 +5527,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>284</v>
       </c>
@@ -5264,7 +5541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>285</v>
       </c>
@@ -5277,14 +5554,14 @@
       <c r="D215" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I215" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I215" s="3">
+        <v>0</v>
+      </c>
+      <c r="J215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>287</v>
       </c>
@@ -5298,7 +5575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>288</v>
       </c>
@@ -5312,7 +5589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>289</v>
       </c>
@@ -5326,7 +5603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>290</v>
       </c>
@@ -5340,7 +5617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>291</v>
       </c>
@@ -5354,7 +5631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>292</v>
       </c>
@@ -5368,7 +5645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>293</v>
       </c>
@@ -5382,7 +5659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>294</v>
       </c>
@@ -5401,14 +5678,14 @@
       <c r="H223" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I223" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I223" s="3">
+        <v>0</v>
+      </c>
+      <c r="J223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>296</v>
       </c>
@@ -5422,7 +5699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>297</v>
       </c>
@@ -5436,7 +5713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>298</v>
       </c>
@@ -5450,7 +5727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>299</v>
       </c>
@@ -5463,14 +5740,14 @@
       <c r="D227" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I227" s="3" t="n">
+      <c r="I227" s="3">
         <v>10</v>
       </c>
-      <c r="J227" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>300</v>
       </c>
@@ -5484,7 +5761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>301</v>
       </c>
@@ -5498,7 +5775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>302</v>
       </c>
@@ -5512,7 +5789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>303</v>
       </c>
@@ -5526,7 +5803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>304</v>
       </c>
@@ -5540,7 +5817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>305</v>
       </c>
@@ -5553,14 +5830,14 @@
       <c r="D233" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I233" s="3" t="n">
+      <c r="I233" s="3">
         <v>15.5</v>
       </c>
-      <c r="J233" s="3" t="n">
+      <c r="J233" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>306</v>
       </c>
@@ -5579,14 +5856,14 @@
       <c r="H234" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I234" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I234" s="3">
+        <v>0</v>
+      </c>
+      <c r="J234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>308</v>
       </c>
@@ -5594,7 +5871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>309</v>
       </c>
@@ -5613,14 +5890,14 @@
       <c r="H236" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I236" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I236" s="3">
+        <v>0</v>
+      </c>
+      <c r="J236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>311</v>
       </c>
@@ -5634,7 +5911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>312</v>
       </c>
@@ -5642,7 +5919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>313</v>
       </c>
@@ -5659,7 +5936,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>316</v>
       </c>
@@ -5673,7 +5950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>317</v>
       </c>
@@ -5692,14 +5969,14 @@
       <c r="H241" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I241" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I241" s="3">
+        <v>0</v>
+      </c>
+      <c r="J241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>319</v>
       </c>
@@ -5713,7 +5990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>320</v>
       </c>
@@ -5726,14 +6003,14 @@
       <c r="D243" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I243" s="3" t="n">
+      <c r="I243" s="3">
         <v>15.5</v>
       </c>
-      <c r="J243" s="3" t="n">
+      <c r="J243" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>321</v>
       </c>
@@ -5747,7 +6024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>322</v>
       </c>
@@ -5761,7 +6038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>323</v>
       </c>
@@ -5775,7 +6052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>324</v>
       </c>
@@ -5791,14 +6068,14 @@
       <c r="G247" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I247" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I247" s="3">
+        <v>0</v>
+      </c>
+      <c r="J247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>326</v>
       </c>
@@ -5811,14 +6088,14 @@
       <c r="D248" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I248" s="3" t="n">
+      <c r="I248" s="3">
         <v>4</v>
       </c>
-      <c r="J248" s="3" t="n">
+      <c r="J248" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>327</v>
       </c>
@@ -5832,7 +6109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>328</v>
       </c>
@@ -5840,7 +6117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>329</v>
       </c>
@@ -5859,14 +6136,14 @@
       <c r="H251" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I251" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I251" s="3">
+        <v>0</v>
+      </c>
+      <c r="J251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>331</v>
       </c>
@@ -5880,7 +6157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>332</v>
       </c>
@@ -5894,7 +6171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>333</v>
       </c>
@@ -5908,7 +6185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>334</v>
       </c>
@@ -5922,7 +6199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>335</v>
       </c>
@@ -5936,7 +6213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>336</v>
       </c>
@@ -5950,7 +6227,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>337</v>
       </c>
@@ -5964,7 +6241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>338</v>
       </c>
@@ -5978,7 +6255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>339</v>
       </c>
@@ -5992,7 +6269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>340</v>
       </c>
@@ -6011,14 +6288,14 @@
       <c r="H261" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I261" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I261" s="3">
+        <v>0</v>
+      </c>
+      <c r="J261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>342</v>
       </c>
@@ -6032,7 +6309,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>343</v>
       </c>
@@ -6051,14 +6328,14 @@
       <c r="H263" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I263" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I263" s="3">
+        <v>0</v>
+      </c>
+      <c r="J263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>345</v>
       </c>
@@ -6077,14 +6354,14 @@
       <c r="H264" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I264" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I264" s="3">
+        <v>0</v>
+      </c>
+      <c r="J264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>347</v>
       </c>
@@ -6103,14 +6380,14 @@
       <c r="H265" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I265" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I265" s="3">
+        <v>0</v>
+      </c>
+      <c r="J265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>349</v>
       </c>
@@ -6118,7 +6395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>350</v>
       </c>
@@ -6126,7 +6403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>351</v>
       </c>
@@ -6134,7 +6411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>352</v>
       </c>
@@ -6142,7 +6419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>353</v>
       </c>
@@ -6150,7 +6427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>354</v>
       </c>
@@ -6158,7 +6435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>355</v>
       </c>
@@ -6166,7 +6443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>356</v>
       </c>
@@ -6185,14 +6462,14 @@
       <c r="H273" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I273" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I273" s="3">
+        <v>0</v>
+      </c>
+      <c r="J273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>358</v>
       </c>
@@ -6209,7 +6486,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>361</v>
       </c>
@@ -6217,7 +6494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>362</v>
       </c>
@@ -6230,14 +6507,14 @@
       <c r="D276" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I276" s="3" t="n">
+      <c r="I276" s="3">
         <v>15.5</v>
       </c>
-      <c r="J276" s="3" t="n">
+      <c r="J276" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>363</v>
       </c>
@@ -6254,7 +6531,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>364</v>
       </c>
@@ -6267,14 +6544,14 @@
       <c r="D278" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I278" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I278" s="3">
+        <v>0</v>
+      </c>
+      <c r="J278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>365</v>
       </c>
@@ -6282,7 +6559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>366</v>
       </c>
@@ -6301,14 +6578,14 @@
       <c r="H280" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I280" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I280" s="3">
+        <v>0</v>
+      </c>
+      <c r="J280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>368</v>
       </c>
@@ -6316,7 +6593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>369</v>
       </c>
@@ -6335,14 +6612,14 @@
       <c r="H282" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I282" s="3" t="n">
+      <c r="I282" s="3">
         <v>10</v>
       </c>
-      <c r="J282" s="3" t="n">
+      <c r="J282" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>371</v>
       </c>
@@ -6350,7 +6627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>372</v>
       </c>
@@ -6363,14 +6640,14 @@
       <c r="D284" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I284" s="3" t="n">
+      <c r="I284" s="3">
         <v>8.75</v>
       </c>
-      <c r="J284" s="3" t="n">
+      <c r="J284" s="3">
         <v>8.75</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>373</v>
       </c>
@@ -6378,7 +6655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>374</v>
       </c>
@@ -6386,7 +6663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>375</v>
       </c>
@@ -6394,7 +6671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>376</v>
       </c>
@@ -6413,14 +6690,14 @@
       <c r="H288" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I288" s="3" t="n">
+      <c r="I288" s="3">
         <v>15.5</v>
       </c>
-      <c r="J288" s="3" t="n">
+      <c r="J288" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>378</v>
       </c>
@@ -6439,14 +6716,14 @@
       <c r="H289" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I289" s="3" t="n">
+      <c r="I289" s="3">
         <v>10</v>
       </c>
-      <c r="J289" s="3" t="n">
+      <c r="J289" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>380</v>
       </c>
@@ -6459,14 +6736,14 @@
       <c r="D290" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I290" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I290" s="3">
+        <v>0</v>
+      </c>
+      <c r="J290" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>381</v>
       </c>
@@ -6485,14 +6762,14 @@
       <c r="H291" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I291" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I291" s="3">
+        <v>0</v>
+      </c>
+      <c r="J291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>383</v>
       </c>
@@ -6505,14 +6782,14 @@
       <c r="D292" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I292" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I292" s="3">
+        <v>0</v>
+      </c>
+      <c r="J292" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>384</v>
       </c>
@@ -6520,7 +6797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>385</v>
       </c>
@@ -6528,7 +6805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>386</v>
       </c>
@@ -6542,7 +6819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>387</v>
       </c>
@@ -6550,7 +6827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>388</v>
       </c>
@@ -6569,14 +6846,14 @@
       <c r="H297" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I297" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I297" s="3">
+        <v>0</v>
+      </c>
+      <c r="J297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>390</v>
       </c>
@@ -6595,14 +6872,14 @@
       <c r="H298" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I298" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I298" s="3">
+        <v>0</v>
+      </c>
+      <c r="J298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>392</v>
       </c>
@@ -6610,7 +6887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>393</v>
       </c>
@@ -6618,7 +6895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>394</v>
       </c>
@@ -6634,14 +6911,14 @@
       <c r="E301" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I301" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I301" s="3">
+        <v>0</v>
+      </c>
+      <c r="J301" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>396</v>
       </c>
@@ -6655,7 +6932,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>398</v>
       </c>
@@ -6668,14 +6945,14 @@
       <c r="D303" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I303" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I303" s="3">
+        <v>0</v>
+      </c>
+      <c r="J303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>399</v>
       </c>
@@ -6683,7 +6960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>400</v>
       </c>
@@ -6691,7 +6968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>401</v>
       </c>
@@ -6699,7 +6976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>402</v>
       </c>
@@ -6707,7 +6984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>403</v>
       </c>
@@ -6721,7 +6998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>404</v>
       </c>
@@ -6729,7 +7006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>405</v>
       </c>
@@ -6737,7 +7014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>406</v>
       </c>
@@ -6754,7 +7031,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>408</v>
       </c>
@@ -6770,14 +7047,14 @@
       <c r="G312" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I312" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I312" s="3">
+        <v>0</v>
+      </c>
+      <c r="J312" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>410</v>
       </c>
@@ -6785,7 +7062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>411</v>
       </c>
@@ -6804,14 +7081,14 @@
       <c r="H314" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I314" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I314" s="3">
+        <v>0</v>
+      </c>
+      <c r="J314" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>413</v>
       </c>
@@ -6830,14 +7107,14 @@
       <c r="H315" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I315" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I315" s="3">
+        <v>0</v>
+      </c>
+      <c r="J315" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>415</v>
       </c>
@@ -6850,14 +7127,14 @@
       <c r="D316" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I316" s="3" t="n">
+      <c r="I316" s="3">
         <v>10</v>
       </c>
-      <c r="J316" s="3" t="n">
+      <c r="J316" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>416</v>
       </c>
@@ -6870,14 +7147,14 @@
       <c r="D317" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I317" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I317" s="3">
+        <v>0</v>
+      </c>
+      <c r="J317" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>417</v>
       </c>
@@ -6885,7 +7162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>418</v>
       </c>
@@ -6904,14 +7181,14 @@
       <c r="H319" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I319" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I319" s="3">
+        <v>0</v>
+      </c>
+      <c r="J319" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>420</v>
       </c>
@@ -6919,7 +7196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>421</v>
       </c>
@@ -6936,7 +7213,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>424</v>
       </c>
@@ -6944,7 +7221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>425</v>
       </c>
@@ -6963,14 +7240,14 @@
       <c r="H323" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I323" s="3" t="n">
+      <c r="I323" s="3">
         <v>15.5</v>
       </c>
-      <c r="J323" s="3" t="n">
+      <c r="J323" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>427</v>
       </c>
@@ -6978,7 +7255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>428</v>
       </c>
@@ -6992,7 +7269,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>429</v>
       </c>
@@ -7005,14 +7282,14 @@
       <c r="D326" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I326" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I326" s="3">
+        <v>0</v>
+      </c>
+      <c r="J326" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>430</v>
       </c>
@@ -7026,7 +7303,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>431</v>
       </c>
@@ -7045,14 +7322,14 @@
       <c r="H328" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I328" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I328" s="3">
+        <v>0</v>
+      </c>
+      <c r="J328" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>433</v>
       </c>
@@ -7060,7 +7337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>434</v>
       </c>
@@ -7079,14 +7356,14 @@
       <c r="H330" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I330" s="3" t="n">
+      <c r="I330" s="3">
         <v>15.5</v>
       </c>
-      <c r="J330" s="3" t="n">
+      <c r="J330" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>436</v>
       </c>
@@ -7105,14 +7382,14 @@
       <c r="H331" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I331" s="3" t="n">
+      <c r="I331" s="3">
         <v>10</v>
       </c>
-      <c r="J331" s="3" t="n">
+      <c r="J331" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>438</v>
       </c>
@@ -7120,7 +7397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>439</v>
       </c>
@@ -7142,14 +7419,14 @@
       <c r="H333" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I333" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I333" s="3">
+        <v>0</v>
+      </c>
+      <c r="J333" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>442</v>
       </c>
@@ -7157,7 +7434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>443</v>
       </c>
@@ -7176,14 +7453,14 @@
       <c r="H335" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I335" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I335" s="3">
+        <v>0</v>
+      </c>
+      <c r="J335" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>445</v>
       </c>
@@ -7191,7 +7468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>446</v>
       </c>
@@ -7205,7 +7482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>447</v>
       </c>
@@ -7213,7 +7490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>448</v>
       </c>
@@ -7227,7 +7504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>449</v>
       </c>
@@ -7235,7 +7512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>450</v>
       </c>
@@ -7248,14 +7525,14 @@
       <c r="D341" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I341" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I341" s="3">
+        <v>0</v>
+      </c>
+      <c r="J341" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>451</v>
       </c>
@@ -7274,14 +7551,14 @@
       <c r="H342" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I342" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I342" s="3">
+        <v>0</v>
+      </c>
+      <c r="J342" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>453</v>
       </c>
@@ -7289,7 +7566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>454</v>
       </c>
@@ -7306,7 +7583,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>457</v>
       </c>
@@ -7323,7 +7600,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>460</v>
       </c>
@@ -7331,7 +7608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>461</v>
       </c>
@@ -7348,7 +7625,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>464</v>
       </c>
@@ -7370,14 +7647,14 @@
       <c r="H348" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I348" s="3" t="n">
+      <c r="I348" s="3">
         <v>15</v>
       </c>
-      <c r="J348" s="3" t="n">
+      <c r="J348" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>467</v>
       </c>
@@ -7385,7 +7662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>468</v>
       </c>
@@ -7393,7 +7670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>469</v>
       </c>
@@ -7409,14 +7686,14 @@
       <c r="E351" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="I351" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J351" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I351" s="3">
+        <v>0</v>
+      </c>
+      <c r="J351" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>471</v>
       </c>
@@ -7424,7 +7701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>472</v>
       </c>
@@ -7446,14 +7723,14 @@
       <c r="H353" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I353" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J353" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I353" s="3">
+        <v>0</v>
+      </c>
+      <c r="J353" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>475</v>
       </c>
@@ -7461,7 +7738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>476</v>
       </c>
@@ -7475,7 +7752,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>477</v>
       </c>
@@ -7488,7 +7765,7 @@
       <c r="D356" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E356" s="1" t="s">
+      <c r="E356" s="5" t="s">
         <v>478</v>
       </c>
       <c r="G356" s="1" t="s">
@@ -7497,14 +7774,14 @@
       <c r="H356" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I356" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J356" s="3" t="n">
+      <c r="I356" s="3">
+        <v>11</v>
+      </c>
+      <c r="J356" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>480</v>
       </c>
@@ -7520,14 +7797,14 @@
       <c r="F357" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="I357" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J357" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I357" s="3">
+        <v>0</v>
+      </c>
+      <c r="J357" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>482</v>
       </c>
@@ -7535,7 +7812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>483</v>
       </c>
@@ -7543,7 +7820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>484</v>
       </c>
@@ -7557,7 +7834,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>485</v>
       </c>
@@ -7565,7 +7842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>486</v>
       </c>
@@ -7573,7 +7850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>487</v>
       </c>
@@ -7581,7 +7858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>488</v>
       </c>
@@ -7589,7 +7866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>489</v>
       </c>
@@ -7597,7 +7874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>490</v>
       </c>
@@ -7605,7 +7882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>491</v>
       </c>
@@ -7624,14 +7901,14 @@
       <c r="H367" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I367" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I367" s="3">
+        <v>0</v>
+      </c>
+      <c r="J367" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>493</v>
       </c>
@@ -7650,14 +7927,14 @@
       <c r="H368" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I368" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J368" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I368" s="3">
+        <v>0</v>
+      </c>
+      <c r="J368" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>495</v>
       </c>
@@ -7665,7 +7942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>496</v>
       </c>
@@ -7673,7 +7950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>497</v>
       </c>
@@ -7681,7 +7958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>498</v>
       </c>
@@ -7695,7 +7972,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>499</v>
       </c>
@@ -7703,7 +7980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>500</v>
       </c>
@@ -7711,7 +7988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>501</v>
       </c>
@@ -7724,14 +8001,14 @@
       <c r="D375" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I375" s="3" t="n">
+      <c r="I375" s="3">
         <v>10</v>
       </c>
-      <c r="J375" s="3" t="n">
+      <c r="J375" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>502</v>
       </c>
@@ -7739,7 +8016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>503</v>
       </c>
@@ -7747,7 +8024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>504</v>
       </c>
@@ -7756,12 +8033,11 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <hyperlinks>
+    <hyperlink ref="E356" r:id="rId1" xr:uid="{3C43D50C-931A-485C-9852-10F5DA150ABF}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{D9EAB5BD-123B-4106-8AF0-9E1D8469CDC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/public/client-files/amc.xlsx
+++ b/public/client-files/amc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\boston\public\client-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4FEC4E-911D-4C96-8373-F18886BA8AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AF9734-7F9B-494F-B96A-AEF559F154B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="505">
   <si>
     <t>AMC</t>
   </si>
@@ -1612,9 +1612,6 @@
   </si>
   <si>
     <t>Golden Appraisal Ltd</t>
-  </si>
-  <si>
-    <t>a@b.com</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2012,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,9 +2065,7 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>505</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
@@ -8035,7 +8030,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E356" r:id="rId1" xr:uid="{3C43D50C-931A-485C-9852-10F5DA150ABF}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{D9EAB5BD-123B-4106-8AF0-9E1D8469CDC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
